--- a/JKJ/mandarin/귤.xlsx
+++ b/JKJ/mandarin/귤.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeong-kyujin/Desktop/mandarin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\JKJ\mandarin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD4A2D0-688A-B44A-809B-B2616B9017EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C333BD-33A6-420E-A50C-726F0624F71A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="1640" windowWidth="24700" windowHeight="17120" activeTab="2" xr2:uid="{9910BE94-F2AB-4A47-95FC-D29C646746FD}"/>
+    <workbookView xWindow="14805" yWindow="1635" windowWidth="24705" windowHeight="17115" activeTab="2" xr2:uid="{9910BE94-F2AB-4A47-95FC-D29C646746FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="5" r:id="rId2"/>
-    <sheet name="과수부문장기수급" sheetId="2" r:id="rId3"/>
-    <sheet name="대외환경_한국은행" sheetId="4" r:id="rId4"/>
+    <sheet name="todo" sheetId="7" r:id="rId2"/>
+    <sheet name="data" sheetId="5" r:id="rId3"/>
+    <sheet name="과수부문장기수급" sheetId="2" r:id="rId4"/>
+    <sheet name="대외환경_한국은행" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="286">
   <si>
     <t>감귤 생산량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1128,6 +1129,46 @@
   </si>
   <si>
     <t>&gt;&gt;일단 대체재가 뭔지…먼저 검증(?)해봐야하지 않나 / 걍 오렌지 끝? 흠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;출하량도 구해서 월별 가중평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요량 관련해서 얼추 데이터는 모았고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 데이터프레임으로 모으는 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전처리 (단위 통일…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자 물가지수 반영해서 가격 노말… (이거 어케함?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산자물가지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소매가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자물가지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;  GDP 디플레이터를 곱해주면 됨!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2349,16 +2390,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AD9E93-A691-46FC-A1F5-124167431190}">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2369,12 +2410,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -2388,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>31</v>
       </c>
@@ -2399,7 +2440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -2413,12 +2454,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>55</v>
       </c>
@@ -2432,7 +2473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>56</v>
       </c>
@@ -2443,7 +2484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>21</v>
       </c>
@@ -2454,52 +2495,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -2507,17 +2548,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -2525,37 +2566,37 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>34</v>
       </c>
@@ -2563,17 +2604,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -2589,7 +2630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>45</v>
       </c>
@@ -2597,7 +2638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>46</v>
       </c>
@@ -2605,7 +2646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>51</v>
       </c>
@@ -2613,7 +2654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>50</v>
       </c>
@@ -2621,67 +2662,67 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
         <v>130</v>
       </c>
@@ -2690,12 +2731,12 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="66" spans="3:8">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="3:8">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
       <c r="H70" t="s">
         <v>58</v>
       </c>
@@ -2711,20 +2752,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FFEF44-1B51-4B71-99F4-FE04FDFE3667}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA4458-884A-7E40-B9C1-3377F437B09C}">
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>149</v>
       </c>
@@ -2737,7 +2840,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>150</v>
       </c>
@@ -2752,7 +2855,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>152</v>
       </c>
@@ -2767,7 +2870,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>154</v>
       </c>
@@ -2782,7 +2885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>156</v>
       </c>
@@ -2795,7 +2898,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>158</v>
       </c>
@@ -2811,7 +2914,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>145</v>
       </c>
@@ -2824,13 +2927,13 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H11" s="17" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>132</v>
       </c>
@@ -2844,7 +2947,7 @@
       </c>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>133</v>
       </c>
@@ -2858,7 +2961,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>134</v>
       </c>
@@ -2868,7 +2971,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>138</v>
       </c>
@@ -2878,7 +2981,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>139</v>
       </c>
@@ -2888,7 +2991,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>141</v>
       </c>
@@ -2898,7 +3001,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>143</v>
       </c>
@@ -2908,7 +3011,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>189</v>
       </c>
@@ -2922,7 +3025,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>190</v>
       </c>
@@ -2933,7 +3036,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>185</v>
       </c>
@@ -2966,7 +3069,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>126</v>
       </c>
@@ -2992,7 +3095,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>153</v>
       </c>
@@ -3018,7 +3121,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>155</v>
       </c>
@@ -3041,7 +3144,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D27" s="12" t="s">
         <v>191</v>
       </c>
@@ -3049,7 +3152,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>192</v>
       </c>
@@ -3063,7 +3166,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>193</v>
       </c>
@@ -3074,12 +3177,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>16</v>
       </c>
@@ -3096,7 +3199,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D32" s="16" t="s">
         <v>236</v>
       </c>
@@ -3104,7 +3207,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D33" s="16" t="s">
         <v>238</v>
       </c>
@@ -3112,7 +3215,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D34" s="16" t="s">
         <v>239</v>
       </c>
@@ -3120,7 +3223,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D35" s="16" t="s">
         <v>266</v>
       </c>
@@ -3128,12 +3231,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E36" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>186</v>
       </c>
@@ -3155,8 +3258,11 @@
       <c r="J37" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="38" spans="2:13">
+      <c r="N37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C38" s="12" t="s">
         <v>247</v>
       </c>
@@ -3176,7 +3282,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C39" s="12" t="s">
         <v>247</v>
       </c>
@@ -3199,12 +3305,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>197</v>
       </c>
@@ -3212,7 +3318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>199</v>
       </c>
@@ -3220,7 +3326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D43" s="14" t="s">
         <v>235</v>
       </c>
@@ -3231,7 +3337,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>248</v>
       </c>
@@ -3248,7 +3354,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>251</v>
       </c>
@@ -3262,7 +3368,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>170</v>
       </c>
@@ -3270,12 +3376,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>195</v>
       </c>
@@ -3283,12 +3389,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>240</v>
       </c>
@@ -3296,17 +3402,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>257</v>
       </c>
@@ -3317,7 +3423,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>258</v>
       </c>
@@ -3328,7 +3434,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I60" t="s">
         <v>260</v>
       </c>
@@ -3349,55 +3455,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2200C5-E6CB-430E-9549-3668984269C5}">
   <dimension ref="A2:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="4.6640625" customWidth="1"/>
+    <col min="2" max="8" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>60</v>
       </c>
@@ -3411,7 +3517,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -3419,7 +3525,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>62</v>
       </c>
@@ -3427,92 +3533,92 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D27" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="5" customFormat="1">
+    <row r="48" spans="2:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>147</v>
       </c>
@@ -3529,7 +3635,7 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -3544,7 +3650,7 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -3559,7 +3665,7 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -3574,7 +3680,7 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -3589,7 +3695,7 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -3604,7 +3710,7 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -3619,7 +3725,7 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -3634,7 +3740,7 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -3649,7 +3755,7 @@
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -3664,7 +3770,7 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -3679,7 +3785,7 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -3694,7 +3800,7 @@
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
@@ -3713,7 +3819,7 @@
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
@@ -3732,7 +3838,7 @@
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="s">
@@ -3751,7 +3857,7 @@
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
@@ -3770,7 +3876,7 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="s">
@@ -3789,7 +3895,7 @@
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
@@ -3808,7 +3914,7 @@
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
@@ -3827,7 +3933,7 @@
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3842,7 +3948,7 @@
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>148</v>
       </c>
@@ -3861,7 +3967,7 @@
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3876,7 +3982,7 @@
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3891,7 +3997,7 @@
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3906,7 +4012,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3924,7 +4030,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
@@ -3943,7 +4049,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7" t="s">
@@ -3964,7 +4070,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
@@ -3987,7 +4093,7 @@
       </c>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
@@ -4010,7 +4116,7 @@
       </c>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
@@ -4029,7 +4135,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
@@ -4048,7 +4154,7 @@
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
@@ -4067,7 +4173,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4082,12 +4188,12 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>167</v>
       </c>
@@ -4100,7 +4206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B8AC86-D953-44B5-A200-471A5CC7F4DD}">
   <dimension ref="B2:N72"/>
   <sheetViews>
@@ -4108,134 +4214,134 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>128</v>
       </c>
@@ -4243,7 +4349,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>168</v>
       </c>
@@ -4258,7 +4364,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -4268,7 +4374,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>169</v>
       </c>
@@ -4280,7 +4386,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -4290,7 +4396,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -4300,7 +4406,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -4310,7 +4416,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -4320,7 +4426,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -4330,7 +4436,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -4340,7 +4446,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>170</v>
       </c>
@@ -4352,7 +4458,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -4362,7 +4468,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -4372,7 +4478,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -4382,7 +4488,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -4392,17 +4498,17 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="72" spans="9:14">
+    <row r="72" spans="9:14" x14ac:dyDescent="0.3">
       <c r="I72" t="s">
         <v>173</v>
       </c>

--- a/JKJ/mandarin/귤.xlsx
+++ b/JKJ/mandarin/귤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-project\JKJ\mandarin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C333BD-33A6-420E-A50C-726F0624F71A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F478951-7FB2-449D-B182-853A3D57A9A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14805" yWindow="1635" windowWidth="24705" windowHeight="17115" activeTab="2" xr2:uid="{9910BE94-F2AB-4A47-95FC-D29C646746FD}"/>
   </bookViews>
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA4458-884A-7E40-B9C1-3377F437B09C}">
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3459,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2200C5-E6CB-430E-9549-3668984269C5}">
   <dimension ref="A2:O118"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A22" zoomScale="89" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
